--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_3BE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_3BE_EN.xlsx
@@ -28199,102 +28199,101 @@
     </r>
   </si>
   <si>
+    <t>F10_Package_3_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F10_Package_3_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F10_Package_3_2_Y_3_2</t>
+  </si>
+  <si>
+    <t>F9_Package_3_2_Y_3_2</t>
+  </si>
+  <si>
+    <t>F9_Package_3_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F9_Package_3_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_3_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_4_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_5_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_6_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_7_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_8_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_9_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_10_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_11_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_12_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_13_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_14_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_Y_15_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_16_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_17_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_18_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_19_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_20_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_21_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_22_2</t>
+  </si>
+  <si>
+    <t>F8_Package_3_2_N_23_2</t>
+  </si>
+  <si>
     <t>1. Login MyAIS.
 2. Click "Package" menu
 3. Click "International Service" menu
 4. Click "International Roaming Service"
 5. Click "OK" (popup เปิด IR)
-6. Click "OK" (popup เปิด IDD)
-7. Click "International Roaming Service" 
-8. Verify page popup message "xxx"
-9. Capture screen</t>
-  </si>
-  <si>
-    <t>F10_Package_3_2_Y_1_2</t>
-  </si>
-  <si>
-    <t>F10_Package_3_2_Y_2_2</t>
-  </si>
-  <si>
-    <t>F10_Package_3_2_Y_3_2</t>
-  </si>
-  <si>
-    <t>F9_Package_3_2_Y_3_2</t>
-  </si>
-  <si>
-    <t>F9_Package_3_2_Y_2_2</t>
-  </si>
-  <si>
-    <t>F9_Package_3_2_Y_1_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_1_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_2_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_3_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_4_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_5_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_6_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_7_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_8_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_9_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_10_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_11_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_12_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_13_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_14_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_Y_15_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_16_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_17_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_18_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_19_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_20_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_21_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_22_2</t>
-  </si>
-  <si>
-    <t>F8_Package_3_2_N_23_2</t>
+6. Click "International Roaming Service" 
+7. Verify page popup message "xxx"
+8. Capture screen</t>
   </si>
 </sst>
 </file>
@@ -31468,6 +31467,83 @@
     <xf numFmtId="0" fontId="29" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -31549,22 +31625,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -31577,118 +31637,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -31702,11 +31668,29 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -31735,29 +31719,50 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -31768,7 +31773,7 @@
     <xf numFmtId="0" fontId="19" fillId="29" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -31789,6 +31794,18 @@
     <xf numFmtId="0" fontId="65" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -31807,15 +31824,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -31826,42 +31834,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="22" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="20" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -37357,25 +37356,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="630" t="s">
+      <c r="C5" s="605" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="631"/>
-      <c r="E5" s="632"/>
+      <c r="D5" s="606"/>
+      <c r="E5" s="607"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="628"/>
-      <c r="I5" s="628"/>
-      <c r="J5" s="628"/>
+      <c r="H5" s="597"/>
+      <c r="I5" s="597"/>
+      <c r="J5" s="597"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="605"/>
-      <c r="E6" s="606"/>
+      <c r="C6" s="627"/>
+      <c r="D6" s="628"/>
+      <c r="E6" s="629"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -37385,23 +37384,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="634"/>
-      <c r="E7" s="635"/>
+      <c r="C7" s="608"/>
+      <c r="D7" s="609"/>
+      <c r="E7" s="610"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="628"/>
-      <c r="I7" s="628"/>
-      <c r="J7" s="628"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="597"/>
+      <c r="J7" s="597"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="636" t="s">
+      <c r="C8" s="611" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="637"/>
-      <c r="E8" s="638"/>
+      <c r="D8" s="612"/>
+      <c r="E8" s="613"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -37424,58 +37423,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="622" t="s">
+      <c r="B11" s="598" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="623"/>
-      <c r="D11" s="629"/>
-      <c r="E11" s="629"/>
-      <c r="F11" s="624"/>
+      <c r="C11" s="599"/>
+      <c r="D11" s="600"/>
+      <c r="E11" s="600"/>
+      <c r="F11" s="601"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="615"/>
-      <c r="D12" s="617"/>
-      <c r="E12" s="617"/>
-      <c r="F12" s="618"/>
+      <c r="C12" s="602"/>
+      <c r="D12" s="603"/>
+      <c r="E12" s="603"/>
+      <c r="F12" s="604"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="615"/>
-      <c r="D13" s="617"/>
-      <c r="E13" s="617"/>
-      <c r="F13" s="618"/>
+      <c r="C13" s="602"/>
+      <c r="D13" s="603"/>
+      <c r="E13" s="603"/>
+      <c r="F13" s="604"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="615"/>
-      <c r="D14" s="617"/>
-      <c r="E14" s="617"/>
-      <c r="F14" s="618"/>
+      <c r="C14" s="602"/>
+      <c r="D14" s="603"/>
+      <c r="E14" s="603"/>
+      <c r="F14" s="604"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="615"/>
-      <c r="D15" s="617"/>
-      <c r="E15" s="617"/>
-      <c r="F15" s="618"/>
+      <c r="C15" s="602"/>
+      <c r="D15" s="603"/>
+      <c r="E15" s="603"/>
+      <c r="F15" s="604"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="619"/>
-      <c r="D16" s="620"/>
-      <c r="E16" s="620"/>
-      <c r="F16" s="621"/>
+      <c r="C16" s="638"/>
+      <c r="D16" s="639"/>
+      <c r="E16" s="639"/>
+      <c r="F16" s="640"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -37485,13 +37484,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="622" t="s">
+      <c r="B18" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="623"/>
-      <c r="D18" s="623"/>
-      <c r="E18" s="623"/>
-      <c r="F18" s="624"/>
+      <c r="C18" s="599"/>
+      <c r="D18" s="599"/>
+      <c r="E18" s="599"/>
+      <c r="F18" s="601"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -37503,10 +37502,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="610" t="s">
+      <c r="E19" s="633" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="625"/>
+      <c r="F19" s="641"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -37518,73 +37517,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="615" t="s">
+      <c r="E20" s="602" t="s">
         <v>361</v>
       </c>
-      <c r="F20" s="616"/>
+      <c r="F20" s="614"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="615"/>
-      <c r="F21" s="616"/>
+      <c r="E21" s="602"/>
+      <c r="F21" s="614"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="615"/>
-      <c r="F22" s="616"/>
+      <c r="E22" s="602"/>
+      <c r="F22" s="614"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="615"/>
-      <c r="F23" s="616"/>
+      <c r="E23" s="602"/>
+      <c r="F23" s="614"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="615"/>
-      <c r="F24" s="616"/>
+      <c r="E24" s="602"/>
+      <c r="F24" s="614"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="615"/>
-      <c r="F25" s="616"/>
+      <c r="E25" s="602"/>
+      <c r="F25" s="614"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="615"/>
-      <c r="F26" s="616"/>
+      <c r="E26" s="602"/>
+      <c r="F26" s="614"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="615"/>
-      <c r="F27" s="616"/>
+      <c r="E27" s="602"/>
+      <c r="F27" s="614"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="615"/>
-      <c r="F28" s="616"/>
+      <c r="E28" s="602"/>
+      <c r="F28" s="614"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="626"/>
-      <c r="F29" s="627"/>
+      <c r="E29" s="615"/>
+      <c r="F29" s="616"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -37594,67 +37593,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="607" t="s">
+      <c r="B31" s="630" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="608"/>
-      <c r="D31" s="608"/>
-      <c r="E31" s="609"/>
+      <c r="C31" s="631"/>
+      <c r="D31" s="631"/>
+      <c r="E31" s="632"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="610" t="s">
+      <c r="C32" s="633" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="611"/>
-      <c r="E32" s="611"/>
+      <c r="D32" s="634"/>
+      <c r="E32" s="634"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="596"/>
-      <c r="D33" s="597"/>
-      <c r="E33" s="597"/>
+      <c r="C33" s="619"/>
+      <c r="D33" s="620"/>
+      <c r="E33" s="620"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="612"/>
-      <c r="D34" s="613"/>
-      <c r="E34" s="614"/>
+      <c r="C34" s="635"/>
+      <c r="D34" s="636"/>
+      <c r="E34" s="637"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="594"/>
-      <c r="D35" s="595"/>
-      <c r="E35" s="595"/>
+      <c r="C35" s="617"/>
+      <c r="D35" s="618"/>
+      <c r="E35" s="618"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="596"/>
-      <c r="D36" s="597"/>
-      <c r="E36" s="597"/>
+      <c r="C36" s="619"/>
+      <c r="D36" s="620"/>
+      <c r="E36" s="620"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="598"/>
-      <c r="D37" s="599"/>
-      <c r="E37" s="600"/>
+      <c r="C37" s="621"/>
+      <c r="D37" s="622"/>
+      <c r="E37" s="623"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="601"/>
-      <c r="D38" s="602"/>
-      <c r="E38" s="603"/>
+      <c r="C38" s="624"/>
+      <c r="D38" s="625"/>
+      <c r="E38" s="626"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37680,22 +37679,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -37712,6 +37695,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39494,19 +39493,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="702" t="s">
+      <c r="A2" s="705" t="s">
         <v>1553</v>
       </c>
-      <c r="B2" s="703"/>
-      <c r="C2" s="703"/>
-      <c r="D2" s="703"/>
-      <c r="E2" s="703"/>
-      <c r="F2" s="703"/>
-      <c r="G2" s="703"/>
-      <c r="H2" s="703"/>
-      <c r="I2" s="703"/>
-      <c r="J2" s="703"/>
-      <c r="K2" s="704"/>
+      <c r="B2" s="706"/>
+      <c r="C2" s="706"/>
+      <c r="D2" s="706"/>
+      <c r="E2" s="706"/>
+      <c r="F2" s="706"/>
+      <c r="G2" s="706"/>
+      <c r="H2" s="706"/>
+      <c r="I2" s="706"/>
+      <c r="J2" s="706"/>
+      <c r="K2" s="707"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="218" t="s">
@@ -40738,19 +40737,19 @@
       <c r="K62" s="509"/>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="702" t="s">
+      <c r="A63" s="705" t="s">
         <v>1572</v>
       </c>
-      <c r="B63" s="703"/>
-      <c r="C63" s="703"/>
-      <c r="D63" s="703"/>
-      <c r="E63" s="703"/>
-      <c r="F63" s="703"/>
-      <c r="G63" s="703"/>
-      <c r="H63" s="703"/>
-      <c r="I63" s="703"/>
-      <c r="J63" s="703"/>
-      <c r="K63" s="704"/>
+      <c r="B63" s="706"/>
+      <c r="C63" s="706"/>
+      <c r="D63" s="706"/>
+      <c r="E63" s="706"/>
+      <c r="F63" s="706"/>
+      <c r="G63" s="706"/>
+      <c r="H63" s="706"/>
+      <c r="I63" s="706"/>
+      <c r="J63" s="706"/>
+      <c r="K63" s="707"/>
     </row>
     <row r="64" spans="1:11" s="462" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="208" t="s">
@@ -44715,98 +44714,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="717" t="s">
+      <c r="A1" s="718" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="705" t="s">
+      <c r="B1" s="717" t="s">
         <v>893</v>
       </c>
-      <c r="C1" s="705" t="s">
+      <c r="C1" s="717" t="s">
         <v>894</v>
       </c>
-      <c r="D1" s="705" t="s">
+      <c r="D1" s="717" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="705" t="s">
+      <c r="E1" s="717" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="705" t="s">
+      <c r="F1" s="717" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="705" t="s">
+      <c r="G1" s="717" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="705" t="s">
+      <c r="H1" s="717" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="705" t="s">
+      <c r="I1" s="717" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="705" t="s">
+      <c r="J1" s="717" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="705" t="s">
+      <c r="K1" s="717" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="705" t="s">
+      <c r="L1" s="717" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="714" t="s">
+      <c r="M1" s="708" t="s">
         <v>895</v>
       </c>
-      <c r="N1" s="715" t="s">
+      <c r="N1" s="710" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="706"/>
-      <c r="B2" s="706"/>
-      <c r="C2" s="706"/>
-      <c r="D2" s="706"/>
-      <c r="E2" s="706"/>
-      <c r="F2" s="706"/>
-      <c r="G2" s="706"/>
-      <c r="H2" s="706"/>
-      <c r="I2" s="706"/>
-      <c r="J2" s="706"/>
-      <c r="K2" s="706"/>
-      <c r="L2" s="706"/>
-      <c r="M2" s="706"/>
-      <c r="N2" s="709"/>
+      <c r="A2" s="709"/>
+      <c r="B2" s="709"/>
+      <c r="C2" s="709"/>
+      <c r="D2" s="709"/>
+      <c r="E2" s="709"/>
+      <c r="F2" s="709"/>
+      <c r="G2" s="709"/>
+      <c r="H2" s="709"/>
+      <c r="I2" s="709"/>
+      <c r="J2" s="709"/>
+      <c r="K2" s="709"/>
+      <c r="L2" s="709"/>
+      <c r="M2" s="709"/>
+      <c r="N2" s="711"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="711" t="s">
+      <c r="A3" s="712" t="s">
         <v>897</v>
       </c>
-      <c r="B3" s="712"/>
-      <c r="C3" s="712"/>
-      <c r="D3" s="712"/>
-      <c r="E3" s="712"/>
-      <c r="F3" s="712"/>
-      <c r="G3" s="712"/>
-      <c r="H3" s="712"/>
-      <c r="I3" s="712"/>
-      <c r="J3" s="712"/>
-      <c r="K3" s="712"/>
-      <c r="L3" s="713"/>
+      <c r="B3" s="713"/>
+      <c r="C3" s="713"/>
+      <c r="D3" s="713"/>
+      <c r="E3" s="713"/>
+      <c r="F3" s="713"/>
+      <c r="G3" s="713"/>
+      <c r="H3" s="713"/>
+      <c r="I3" s="713"/>
+      <c r="J3" s="713"/>
+      <c r="K3" s="713"/>
+      <c r="L3" s="714"/>
       <c r="M3" s="285"/>
       <c r="N3" s="286"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="716" t="s">
+      <c r="A4" s="715" t="s">
         <v>898</v>
       </c>
-      <c r="B4" s="712"/>
-      <c r="C4" s="712"/>
-      <c r="D4" s="712"/>
-      <c r="E4" s="712"/>
-      <c r="F4" s="712"/>
-      <c r="G4" s="712"/>
-      <c r="H4" s="712"/>
-      <c r="I4" s="712"/>
-      <c r="J4" s="712"/>
-      <c r="K4" s="712"/>
-      <c r="L4" s="713"/>
+      <c r="B4" s="713"/>
+      <c r="C4" s="713"/>
+      <c r="D4" s="713"/>
+      <c r="E4" s="713"/>
+      <c r="F4" s="713"/>
+      <c r="G4" s="713"/>
+      <c r="H4" s="713"/>
+      <c r="I4" s="713"/>
+      <c r="J4" s="713"/>
+      <c r="K4" s="713"/>
+      <c r="L4" s="714"/>
       <c r="M4" s="287"/>
       <c r="N4" s="288"/>
     </row>
@@ -44978,20 +44977,20 @@
       <c r="N10" s="318"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="711" t="s">
+      <c r="A11" s="712" t="s">
         <v>920</v>
       </c>
-      <c r="B11" s="708"/>
-      <c r="C11" s="708"/>
-      <c r="D11" s="712"/>
-      <c r="E11" s="708"/>
-      <c r="F11" s="712"/>
-      <c r="G11" s="712"/>
-      <c r="H11" s="712"/>
-      <c r="I11" s="712"/>
-      <c r="J11" s="712"/>
-      <c r="K11" s="712"/>
-      <c r="L11" s="713"/>
+      <c r="B11" s="716"/>
+      <c r="C11" s="716"/>
+      <c r="D11" s="713"/>
+      <c r="E11" s="716"/>
+      <c r="F11" s="713"/>
+      <c r="G11" s="713"/>
+      <c r="H11" s="713"/>
+      <c r="I11" s="713"/>
+      <c r="J11" s="713"/>
+      <c r="K11" s="713"/>
+      <c r="L11" s="714"/>
       <c r="M11" s="285"/>
       <c r="N11" s="285"/>
     </row>
@@ -45052,20 +45051,20 @@
       <c r="N13" s="330"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="711" t="s">
+      <c r="A14" s="712" t="s">
         <v>928</v>
       </c>
-      <c r="B14" s="712"/>
-      <c r="C14" s="712"/>
-      <c r="D14" s="712"/>
-      <c r="E14" s="712"/>
-      <c r="F14" s="712"/>
-      <c r="G14" s="712"/>
-      <c r="H14" s="712"/>
-      <c r="I14" s="712"/>
-      <c r="J14" s="712"/>
-      <c r="K14" s="712"/>
-      <c r="L14" s="713"/>
+      <c r="B14" s="713"/>
+      <c r="C14" s="713"/>
+      <c r="D14" s="713"/>
+      <c r="E14" s="713"/>
+      <c r="F14" s="713"/>
+      <c r="G14" s="713"/>
+      <c r="H14" s="713"/>
+      <c r="I14" s="713"/>
+      <c r="J14" s="713"/>
+      <c r="K14" s="713"/>
+      <c r="L14" s="714"/>
       <c r="M14" s="329"/>
       <c r="N14" s="330"/>
     </row>
@@ -45126,20 +45125,20 @@
       <c r="N16" s="338"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="707" t="s">
+      <c r="A17" s="719" t="s">
         <v>934</v>
       </c>
-      <c r="B17" s="708"/>
-      <c r="C17" s="708"/>
-      <c r="D17" s="708"/>
-      <c r="E17" s="708"/>
-      <c r="F17" s="708"/>
-      <c r="G17" s="708"/>
-      <c r="H17" s="708"/>
-      <c r="I17" s="708"/>
-      <c r="J17" s="708"/>
-      <c r="K17" s="708"/>
-      <c r="L17" s="709"/>
+      <c r="B17" s="716"/>
+      <c r="C17" s="716"/>
+      <c r="D17" s="716"/>
+      <c r="E17" s="716"/>
+      <c r="F17" s="716"/>
+      <c r="G17" s="716"/>
+      <c r="H17" s="716"/>
+      <c r="I17" s="716"/>
+      <c r="J17" s="716"/>
+      <c r="K17" s="716"/>
+      <c r="L17" s="711"/>
       <c r="M17" s="339"/>
       <c r="N17" s="340"/>
     </row>
@@ -45456,20 +45455,20 @@
       <c r="N30" s="377"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="710" t="s">
+      <c r="A31" s="720" t="s">
         <v>972</v>
       </c>
-      <c r="B31" s="708"/>
-      <c r="C31" s="708"/>
-      <c r="D31" s="708"/>
-      <c r="E31" s="708"/>
-      <c r="F31" s="708"/>
-      <c r="G31" s="708"/>
-      <c r="H31" s="708"/>
-      <c r="I31" s="708"/>
-      <c r="J31" s="708"/>
-      <c r="K31" s="708"/>
-      <c r="L31" s="709"/>
+      <c r="B31" s="716"/>
+      <c r="C31" s="716"/>
+      <c r="D31" s="716"/>
+      <c r="E31" s="716"/>
+      <c r="F31" s="716"/>
+      <c r="G31" s="716"/>
+      <c r="H31" s="716"/>
+      <c r="I31" s="716"/>
+      <c r="J31" s="716"/>
+      <c r="K31" s="716"/>
+      <c r="L31" s="711"/>
       <c r="M31" s="378"/>
       <c r="N31" s="378"/>
     </row>
@@ -59933,6 +59932,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
@@ -59949,10 +59952,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -59989,10 +59988,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="675" t="s">
+      <c r="A1" s="642" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="675"/>
+      <c r="B1" s="642"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -60027,250 +60026,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="676" t="s">
+      <c r="A2" s="643" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="676" t="s">
+      <c r="B2" s="643" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="676" t="s">
+      <c r="C2" s="643" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="679" t="s">
+      <c r="D2" s="646" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="679"/>
-      <c r="F2" s="679"/>
-      <c r="G2" s="645" t="s">
+      <c r="E2" s="646"/>
+      <c r="F2" s="646"/>
+      <c r="G2" s="655" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="646"/>
-      <c r="I2" s="646"/>
-      <c r="J2" s="651"/>
-      <c r="K2" s="639" t="s">
+      <c r="H2" s="656"/>
+      <c r="I2" s="656"/>
+      <c r="J2" s="657"/>
+      <c r="K2" s="673" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="639"/>
-      <c r="M2" s="645" t="s">
+      <c r="L2" s="673"/>
+      <c r="M2" s="655" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="646"/>
-      <c r="O2" s="651"/>
-      <c r="P2" s="645" t="s">
+      <c r="N2" s="656"/>
+      <c r="O2" s="657"/>
+      <c r="P2" s="655" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="651"/>
-      <c r="R2" s="645" t="s">
+      <c r="Q2" s="657"/>
+      <c r="R2" s="655" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="646"/>
-      <c r="T2" s="645" t="s">
+      <c r="S2" s="656"/>
+      <c r="T2" s="655" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="646"/>
-      <c r="V2" s="646"/>
-      <c r="W2" s="646"/>
-      <c r="X2" s="651"/>
-      <c r="Y2" s="645" t="s">
+      <c r="U2" s="656"/>
+      <c r="V2" s="656"/>
+      <c r="W2" s="656"/>
+      <c r="X2" s="657"/>
+      <c r="Y2" s="655" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="646"/>
-      <c r="AA2" s="646"/>
-      <c r="AB2" s="651"/>
-      <c r="AC2" s="660" t="s">
+      <c r="Z2" s="656"/>
+      <c r="AA2" s="656"/>
+      <c r="AB2" s="657"/>
+      <c r="AC2" s="649" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="661"/>
-      <c r="AE2" s="661"/>
-      <c r="AF2" s="670"/>
-      <c r="AG2" s="660" t="s">
+      <c r="AD2" s="650"/>
+      <c r="AE2" s="650"/>
+      <c r="AF2" s="665"/>
+      <c r="AG2" s="649" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="661"/>
-      <c r="AI2" s="661"/>
+      <c r="AH2" s="650"/>
+      <c r="AI2" s="650"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="677"/>
-      <c r="B3" s="677"/>
-      <c r="C3" s="677"/>
-      <c r="D3" s="679"/>
-      <c r="E3" s="679"/>
-      <c r="F3" s="679"/>
-      <c r="G3" s="647"/>
-      <c r="H3" s="648"/>
-      <c r="I3" s="648"/>
-      <c r="J3" s="652"/>
-      <c r="K3" s="639" t="s">
+      <c r="A3" s="644"/>
+      <c r="B3" s="644"/>
+      <c r="C3" s="644"/>
+      <c r="D3" s="646"/>
+      <c r="E3" s="646"/>
+      <c r="F3" s="646"/>
+      <c r="G3" s="651"/>
+      <c r="H3" s="652"/>
+      <c r="I3" s="652"/>
+      <c r="J3" s="658"/>
+      <c r="K3" s="673" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="639"/>
-      <c r="M3" s="647"/>
-      <c r="N3" s="648"/>
-      <c r="O3" s="652"/>
-      <c r="P3" s="647"/>
-      <c r="Q3" s="652"/>
-      <c r="R3" s="647"/>
-      <c r="S3" s="648"/>
-      <c r="T3" s="647"/>
-      <c r="U3" s="648"/>
-      <c r="V3" s="648"/>
-      <c r="W3" s="648"/>
-      <c r="X3" s="652"/>
-      <c r="Y3" s="647"/>
-      <c r="Z3" s="648"/>
-      <c r="AA3" s="648"/>
-      <c r="AB3" s="652"/>
-      <c r="AC3" s="647"/>
-      <c r="AD3" s="648"/>
-      <c r="AE3" s="648"/>
-      <c r="AF3" s="652"/>
-      <c r="AG3" s="647"/>
-      <c r="AH3" s="648"/>
-      <c r="AI3" s="648"/>
+      <c r="L3" s="673"/>
+      <c r="M3" s="651"/>
+      <c r="N3" s="652"/>
+      <c r="O3" s="658"/>
+      <c r="P3" s="651"/>
+      <c r="Q3" s="658"/>
+      <c r="R3" s="651"/>
+      <c r="S3" s="652"/>
+      <c r="T3" s="651"/>
+      <c r="U3" s="652"/>
+      <c r="V3" s="652"/>
+      <c r="W3" s="652"/>
+      <c r="X3" s="658"/>
+      <c r="Y3" s="651"/>
+      <c r="Z3" s="652"/>
+      <c r="AA3" s="652"/>
+      <c r="AB3" s="658"/>
+      <c r="AC3" s="651"/>
+      <c r="AD3" s="652"/>
+      <c r="AE3" s="652"/>
+      <c r="AF3" s="658"/>
+      <c r="AG3" s="651"/>
+      <c r="AH3" s="652"/>
+      <c r="AI3" s="652"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="677"/>
-      <c r="B4" s="677"/>
-      <c r="C4" s="677"/>
-      <c r="D4" s="658" t="s">
+      <c r="A4" s="644"/>
+      <c r="B4" s="644"/>
+      <c r="C4" s="644"/>
+      <c r="D4" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="658" t="s">
+      <c r="E4" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="658" t="s">
+      <c r="F4" s="647" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="656" t="s">
+      <c r="G4" s="671" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="656" t="s">
+      <c r="H4" s="671" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="656" t="s">
+      <c r="I4" s="671" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="656" t="s">
+      <c r="J4" s="671" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="640" t="s">
+      <c r="K4" s="674" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="640" t="s">
+      <c r="L4" s="674" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="642" t="s">
+      <c r="M4" s="676" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="642" t="s">
+      <c r="N4" s="676" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="653" t="s">
+      <c r="O4" s="680" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="654" t="s">
+      <c r="P4" s="681" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="654" t="s">
+      <c r="Q4" s="681" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="649" t="s">
+      <c r="R4" s="678" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="649" t="s">
+      <c r="S4" s="678" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="662" t="s">
+      <c r="T4" s="653" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="673" t="s">
+      <c r="U4" s="669" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="674"/>
-      <c r="W4" s="644" t="s">
+      <c r="V4" s="670"/>
+      <c r="W4" s="668" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="644" t="s">
+      <c r="X4" s="668" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="664" t="s">
+      <c r="Y4" s="659" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="664" t="s">
+      <c r="Z4" s="659" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="668" t="s">
+      <c r="AA4" s="663" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="669"/>
-      <c r="AC4" s="666" t="s">
+      <c r="AB4" s="664"/>
+      <c r="AC4" s="661" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="666" t="s">
+      <c r="AD4" s="661" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="671" t="s">
+      <c r="AE4" s="666" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="672"/>
-      <c r="AG4" s="658" t="s">
+      <c r="AF4" s="667"/>
+      <c r="AG4" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="658" t="s">
+      <c r="AH4" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="658" t="s">
+      <c r="AI4" s="647" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="678"/>
-      <c r="B5" s="678"/>
-      <c r="C5" s="678"/>
-      <c r="D5" s="659"/>
-      <c r="E5" s="659"/>
-      <c r="F5" s="659"/>
-      <c r="G5" s="657"/>
-      <c r="H5" s="657"/>
-      <c r="I5" s="657"/>
-      <c r="J5" s="657"/>
-      <c r="K5" s="641"/>
-      <c r="L5" s="641"/>
-      <c r="M5" s="643"/>
-      <c r="N5" s="643"/>
-      <c r="O5" s="643"/>
-      <c r="P5" s="655"/>
-      <c r="Q5" s="655"/>
-      <c r="R5" s="650"/>
-      <c r="S5" s="650"/>
-      <c r="T5" s="663"/>
+      <c r="A5" s="645"/>
+      <c r="B5" s="645"/>
+      <c r="C5" s="645"/>
+      <c r="D5" s="648"/>
+      <c r="E5" s="648"/>
+      <c r="F5" s="648"/>
+      <c r="G5" s="672"/>
+      <c r="H5" s="672"/>
+      <c r="I5" s="672"/>
+      <c r="J5" s="672"/>
+      <c r="K5" s="675"/>
+      <c r="L5" s="675"/>
+      <c r="M5" s="677"/>
+      <c r="N5" s="677"/>
+      <c r="O5" s="677"/>
+      <c r="P5" s="682"/>
+      <c r="Q5" s="682"/>
+      <c r="R5" s="679"/>
+      <c r="S5" s="679"/>
+      <c r="T5" s="654"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="644"/>
-      <c r="X5" s="644"/>
-      <c r="Y5" s="665"/>
-      <c r="Z5" s="665"/>
+      <c r="W5" s="668"/>
+      <c r="X5" s="668"/>
+      <c r="Y5" s="660"/>
+      <c r="Z5" s="660"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="667"/>
-      <c r="AD5" s="667"/>
+      <c r="AC5" s="662"/>
+      <c r="AD5" s="662"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="659"/>
-      <c r="AH5" s="659"/>
-      <c r="AI5" s="659"/>
+      <c r="AG5" s="648"/>
+      <c r="AH5" s="648"/>
+      <c r="AI5" s="648"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -60533,14 +60532,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -60557,26 +60568,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60603,56 +60602,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="687" t="s">
+      <c r="A1" s="689" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="689" t="s">
+      <c r="B1" s="691" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="689" t="s">
+      <c r="C1" s="691" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="690" t="s">
+      <c r="D1" s="692" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="690" t="s">
+      <c r="E1" s="692" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="689" t="s">
+      <c r="F1" s="691" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="689" t="s">
+      <c r="G1" s="691" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="689" t="s">
+      <c r="H1" s="691" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="689" t="s">
+      <c r="I1" s="691" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="689" t="s">
+      <c r="J1" s="691" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="692" t="s">
+      <c r="K1" s="694" t="s">
         <v>895</v>
       </c>
-      <c r="L1" s="685" t="s">
+      <c r="L1" s="687" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="688"/>
-      <c r="B2" s="688"/>
-      <c r="C2" s="688"/>
-      <c r="D2" s="691"/>
-      <c r="E2" s="691"/>
-      <c r="F2" s="688"/>
-      <c r="G2" s="688"/>
-      <c r="H2" s="688"/>
-      <c r="I2" s="688"/>
-      <c r="J2" s="688"/>
-      <c r="K2" s="688"/>
-      <c r="L2" s="686"/>
+      <c r="A2" s="690"/>
+      <c r="B2" s="690"/>
+      <c r="C2" s="690"/>
+      <c r="D2" s="693"/>
+      <c r="E2" s="693"/>
+      <c r="F2" s="690"/>
+      <c r="G2" s="690"/>
+      <c r="H2" s="690"/>
+      <c r="I2" s="690"/>
+      <c r="J2" s="690"/>
+      <c r="K2" s="690"/>
+      <c r="L2" s="688"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="394" t="s">
@@ -61175,20 +61174,20 @@
       <c r="L25" s="412"/>
     </row>
     <row r="26" spans="1:12" s="434" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="681" t="s">
+      <c r="A26" s="683" t="s">
         <v>1142</v>
       </c>
-      <c r="B26" s="682"/>
-      <c r="C26" s="682"/>
-      <c r="D26" s="682"/>
-      <c r="E26" s="682"/>
-      <c r="F26" s="682"/>
-      <c r="G26" s="682"/>
-      <c r="H26" s="682"/>
-      <c r="I26" s="682"/>
-      <c r="J26" s="682"/>
-      <c r="K26" s="682"/>
-      <c r="L26" s="683"/>
+      <c r="B26" s="684"/>
+      <c r="C26" s="684"/>
+      <c r="D26" s="684"/>
+      <c r="E26" s="684"/>
+      <c r="F26" s="684"/>
+      <c r="G26" s="684"/>
+      <c r="H26" s="684"/>
+      <c r="I26" s="684"/>
+      <c r="J26" s="684"/>
+      <c r="K26" s="684"/>
+      <c r="L26" s="685"/>
     </row>
     <row r="27" spans="1:12" s="434" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="218" t="s">
@@ -61831,20 +61830,20 @@
       <c r="L54" s="439"/>
     </row>
     <row r="55" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="680" t="s">
+      <c r="A55" s="686" t="s">
         <v>1148</v>
       </c>
-      <c r="B55" s="680"/>
-      <c r="C55" s="680"/>
-      <c r="D55" s="680"/>
-      <c r="E55" s="680"/>
-      <c r="F55" s="680"/>
-      <c r="G55" s="680"/>
-      <c r="H55" s="680"/>
-      <c r="I55" s="680"/>
-      <c r="J55" s="680"/>
-      <c r="K55" s="680"/>
-      <c r="L55" s="680"/>
+      <c r="B55" s="686"/>
+      <c r="C55" s="686"/>
+      <c r="D55" s="686"/>
+      <c r="E55" s="686"/>
+      <c r="F55" s="686"/>
+      <c r="G55" s="686"/>
+      <c r="H55" s="686"/>
+      <c r="I55" s="686"/>
+      <c r="J55" s="686"/>
+      <c r="K55" s="686"/>
+      <c r="L55" s="686"/>
     </row>
     <row r="56" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="218" t="s">
@@ -61895,20 +61894,20 @@
       <c r="L57" s="439"/>
     </row>
     <row r="58" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="680" t="s">
+      <c r="A58" s="686" t="s">
         <v>1335</v>
       </c>
-      <c r="B58" s="680"/>
-      <c r="C58" s="680"/>
-      <c r="D58" s="680"/>
-      <c r="E58" s="680"/>
-      <c r="F58" s="680"/>
-      <c r="G58" s="680"/>
-      <c r="H58" s="680"/>
-      <c r="I58" s="680"/>
-      <c r="J58" s="680"/>
-      <c r="K58" s="680"/>
-      <c r="L58" s="680"/>
+      <c r="B58" s="686"/>
+      <c r="C58" s="686"/>
+      <c r="D58" s="686"/>
+      <c r="E58" s="686"/>
+      <c r="F58" s="686"/>
+      <c r="G58" s="686"/>
+      <c r="H58" s="686"/>
+      <c r="I58" s="686"/>
+      <c r="J58" s="686"/>
+      <c r="K58" s="686"/>
+      <c r="L58" s="686"/>
     </row>
     <row r="59" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="218" t="s">
@@ -61959,20 +61958,20 @@
       <c r="L60" s="439"/>
     </row>
     <row r="61" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="680" t="s">
+      <c r="A61" s="686" t="s">
         <v>1341</v>
       </c>
-      <c r="B61" s="680"/>
-      <c r="C61" s="680"/>
-      <c r="D61" s="680"/>
-      <c r="E61" s="680"/>
-      <c r="F61" s="680"/>
-      <c r="G61" s="680"/>
-      <c r="H61" s="680"/>
-      <c r="I61" s="680"/>
-      <c r="J61" s="680"/>
-      <c r="K61" s="680"/>
-      <c r="L61" s="680"/>
+      <c r="B61" s="686"/>
+      <c r="C61" s="686"/>
+      <c r="D61" s="686"/>
+      <c r="E61" s="686"/>
+      <c r="F61" s="686"/>
+      <c r="G61" s="686"/>
+      <c r="H61" s="686"/>
+      <c r="I61" s="686"/>
+      <c r="J61" s="686"/>
+      <c r="K61" s="686"/>
+      <c r="L61" s="686"/>
     </row>
     <row r="62" spans="1:12" s="535" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="531" t="s">
@@ -62023,20 +62022,20 @@
       <c r="L63" s="439"/>
     </row>
     <row r="64" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="681" t="s">
+      <c r="A64" s="683" t="s">
         <v>1347</v>
       </c>
-      <c r="B64" s="682"/>
-      <c r="C64" s="682"/>
-      <c r="D64" s="682"/>
-      <c r="E64" s="682"/>
-      <c r="F64" s="682"/>
-      <c r="G64" s="682"/>
-      <c r="H64" s="682"/>
-      <c r="I64" s="682"/>
-      <c r="J64" s="682"/>
-      <c r="K64" s="682"/>
-      <c r="L64" s="683"/>
+      <c r="B64" s="684"/>
+      <c r="C64" s="684"/>
+      <c r="D64" s="684"/>
+      <c r="E64" s="684"/>
+      <c r="F64" s="684"/>
+      <c r="G64" s="684"/>
+      <c r="H64" s="684"/>
+      <c r="I64" s="684"/>
+      <c r="J64" s="684"/>
+      <c r="K64" s="684"/>
+      <c r="L64" s="685"/>
     </row>
     <row r="65" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="218" t="s">
@@ -62135,20 +62134,20 @@
       <c r="L68" s="439"/>
     </row>
     <row r="69" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="680" t="s">
+      <c r="A69" s="686" t="s">
         <v>1359</v>
       </c>
-      <c r="B69" s="680"/>
-      <c r="C69" s="680"/>
-      <c r="D69" s="680"/>
-      <c r="E69" s="680"/>
-      <c r="F69" s="680"/>
-      <c r="G69" s="680"/>
-      <c r="H69" s="680"/>
-      <c r="I69" s="680"/>
-      <c r="J69" s="680"/>
-      <c r="K69" s="680"/>
-      <c r="L69" s="680"/>
+      <c r="B69" s="686"/>
+      <c r="C69" s="686"/>
+      <c r="D69" s="686"/>
+      <c r="E69" s="686"/>
+      <c r="F69" s="686"/>
+      <c r="G69" s="686"/>
+      <c r="H69" s="686"/>
+      <c r="I69" s="686"/>
+      <c r="J69" s="686"/>
+      <c r="K69" s="686"/>
+      <c r="L69" s="686"/>
     </row>
     <row r="70" spans="1:12" s="535" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="531" t="s">
@@ -62273,20 +62272,20 @@
       <c r="L74" s="439"/>
     </row>
     <row r="75" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="680" t="s">
+      <c r="A75" s="686" t="s">
         <v>1371</v>
       </c>
-      <c r="B75" s="680"/>
-      <c r="C75" s="680"/>
-      <c r="D75" s="680"/>
-      <c r="E75" s="680"/>
-      <c r="F75" s="680"/>
-      <c r="G75" s="680"/>
-      <c r="H75" s="680"/>
-      <c r="I75" s="680"/>
-      <c r="J75" s="680"/>
-      <c r="K75" s="680"/>
-      <c r="L75" s="680"/>
+      <c r="B75" s="686"/>
+      <c r="C75" s="686"/>
+      <c r="D75" s="686"/>
+      <c r="E75" s="686"/>
+      <c r="F75" s="686"/>
+      <c r="G75" s="686"/>
+      <c r="H75" s="686"/>
+      <c r="I75" s="686"/>
+      <c r="J75" s="686"/>
+      <c r="K75" s="686"/>
+      <c r="L75" s="686"/>
     </row>
     <row r="76" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="218" t="s">
@@ -62361,20 +62360,20 @@
       <c r="L78" s="439"/>
     </row>
     <row r="79" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="680" t="s">
+      <c r="A79" s="686" t="s">
         <v>1380</v>
       </c>
-      <c r="B79" s="680"/>
-      <c r="C79" s="680"/>
-      <c r="D79" s="680"/>
-      <c r="E79" s="680"/>
-      <c r="F79" s="680"/>
-      <c r="G79" s="680"/>
-      <c r="H79" s="680"/>
-      <c r="I79" s="680"/>
-      <c r="J79" s="680"/>
-      <c r="K79" s="680"/>
-      <c r="L79" s="680"/>
+      <c r="B79" s="686"/>
+      <c r="C79" s="686"/>
+      <c r="D79" s="686"/>
+      <c r="E79" s="686"/>
+      <c r="F79" s="686"/>
+      <c r="G79" s="686"/>
+      <c r="H79" s="686"/>
+      <c r="I79" s="686"/>
+      <c r="J79" s="686"/>
+      <c r="K79" s="686"/>
+      <c r="L79" s="686"/>
     </row>
     <row r="80" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="218" t="s">
@@ -62473,20 +62472,20 @@
       <c r="L83" s="439"/>
     </row>
     <row r="84" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="680" t="s">
+      <c r="A84" s="686" t="s">
         <v>1390</v>
       </c>
-      <c r="B84" s="680"/>
-      <c r="C84" s="680"/>
-      <c r="D84" s="680"/>
-      <c r="E84" s="680"/>
-      <c r="F84" s="680"/>
-      <c r="G84" s="680"/>
-      <c r="H84" s="680"/>
-      <c r="I84" s="680"/>
-      <c r="J84" s="680"/>
-      <c r="K84" s="680"/>
-      <c r="L84" s="680"/>
+      <c r="B84" s="686"/>
+      <c r="C84" s="686"/>
+      <c r="D84" s="686"/>
+      <c r="E84" s="686"/>
+      <c r="F84" s="686"/>
+      <c r="G84" s="686"/>
+      <c r="H84" s="686"/>
+      <c r="I84" s="686"/>
+      <c r="J84" s="686"/>
+      <c r="K84" s="686"/>
+      <c r="L84" s="686"/>
     </row>
     <row r="85" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="218" t="s">
@@ -62537,20 +62536,20 @@
       <c r="L86" s="439"/>
     </row>
     <row r="87" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="680" t="s">
+      <c r="A87" s="686" t="s">
         <v>1396</v>
       </c>
-      <c r="B87" s="680"/>
-      <c r="C87" s="680"/>
-      <c r="D87" s="680"/>
-      <c r="E87" s="680"/>
-      <c r="F87" s="680"/>
-      <c r="G87" s="680"/>
-      <c r="H87" s="680"/>
-      <c r="I87" s="680"/>
-      <c r="J87" s="680"/>
-      <c r="K87" s="680"/>
-      <c r="L87" s="680"/>
+      <c r="B87" s="686"/>
+      <c r="C87" s="686"/>
+      <c r="D87" s="686"/>
+      <c r="E87" s="686"/>
+      <c r="F87" s="686"/>
+      <c r="G87" s="686"/>
+      <c r="H87" s="686"/>
+      <c r="I87" s="686"/>
+      <c r="J87" s="686"/>
+      <c r="K87" s="686"/>
+      <c r="L87" s="686"/>
     </row>
     <row r="88" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="218" t="s">
@@ -62649,20 +62648,20 @@
       <c r="L91" s="439"/>
     </row>
     <row r="92" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="680" t="s">
+      <c r="A92" s="686" t="s">
         <v>1404</v>
       </c>
-      <c r="B92" s="680"/>
-      <c r="C92" s="680"/>
-      <c r="D92" s="680"/>
-      <c r="E92" s="680"/>
-      <c r="F92" s="680"/>
-      <c r="G92" s="680"/>
-      <c r="H92" s="680"/>
-      <c r="I92" s="680"/>
-      <c r="J92" s="680"/>
-      <c r="K92" s="680"/>
-      <c r="L92" s="680"/>
+      <c r="B92" s="686"/>
+      <c r="C92" s="686"/>
+      <c r="D92" s="686"/>
+      <c r="E92" s="686"/>
+      <c r="F92" s="686"/>
+      <c r="G92" s="686"/>
+      <c r="H92" s="686"/>
+      <c r="I92" s="686"/>
+      <c r="J92" s="686"/>
+      <c r="K92" s="686"/>
+      <c r="L92" s="686"/>
     </row>
     <row r="93" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="218" t="s">
@@ -62737,20 +62736,20 @@
       <c r="L95" s="439"/>
     </row>
     <row r="96" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="680" t="s">
+      <c r="A96" s="686" t="s">
         <v>1413</v>
       </c>
-      <c r="B96" s="680"/>
-      <c r="C96" s="680"/>
-      <c r="D96" s="680"/>
-      <c r="E96" s="680"/>
-      <c r="F96" s="680"/>
-      <c r="G96" s="680"/>
-      <c r="H96" s="680"/>
-      <c r="I96" s="680"/>
-      <c r="J96" s="680"/>
-      <c r="K96" s="680"/>
-      <c r="L96" s="680"/>
+      <c r="B96" s="686"/>
+      <c r="C96" s="686"/>
+      <c r="D96" s="686"/>
+      <c r="E96" s="686"/>
+      <c r="F96" s="686"/>
+      <c r="G96" s="686"/>
+      <c r="H96" s="686"/>
+      <c r="I96" s="686"/>
+      <c r="J96" s="686"/>
+      <c r="K96" s="686"/>
+      <c r="L96" s="686"/>
     </row>
     <row r="97" spans="1:12" s="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="218" t="s">
@@ -62935,20 +62934,20 @@
       <c r="L104" s="557"/>
     </row>
     <row r="105" spans="1:12" s="443" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="684" t="s">
+      <c r="A105" s="695" t="s">
         <v>1149</v>
       </c>
-      <c r="B105" s="684"/>
-      <c r="C105" s="684"/>
-      <c r="D105" s="684"/>
-      <c r="E105" s="684"/>
-      <c r="F105" s="684"/>
-      <c r="G105" s="684"/>
-      <c r="H105" s="684"/>
-      <c r="I105" s="684"/>
-      <c r="J105" s="684"/>
-      <c r="K105" s="684"/>
-      <c r="L105" s="684"/>
+      <c r="B105" s="695"/>
+      <c r="C105" s="695"/>
+      <c r="D105" s="695"/>
+      <c r="E105" s="695"/>
+      <c r="F105" s="695"/>
+      <c r="G105" s="695"/>
+      <c r="H105" s="695"/>
+      <c r="I105" s="695"/>
+      <c r="J105" s="695"/>
+      <c r="K105" s="695"/>
+      <c r="L105" s="695"/>
     </row>
     <row r="106" spans="1:12" s="443" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="444" t="s">
@@ -63159,6 +63158,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A58:L58"/>
@@ -63174,16 +63183,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63237,7 +63236,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="694" t="s">
+      <c r="B2" s="700" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -63250,7 +63249,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="695"/>
+      <c r="B3" s="701"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -63261,7 +63260,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="699" t="s">
+      <c r="B4" s="696" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -63274,7 +63273,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="701"/>
+      <c r="B5" s="697"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -63285,7 +63284,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="701"/>
+      <c r="B6" s="697"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -63296,7 +63295,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="701"/>
+      <c r="B7" s="697"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -63307,7 +63306,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="700"/>
+      <c r="B8" s="698"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -63318,7 +63317,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="699" t="s">
+      <c r="B9" s="696" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -63331,8 +63330,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="701"/>
-      <c r="C10" s="699" t="s">
+      <c r="B10" s="697"/>
+      <c r="C10" s="696" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -63344,8 +63343,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="701"/>
-      <c r="C11" s="700"/>
+      <c r="B11" s="697"/>
+      <c r="C11" s="698"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -63355,8 +63354,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="701"/>
-      <c r="C12" s="699" t="s">
+      <c r="B12" s="697"/>
+      <c r="C12" s="696" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="135" t="s">
@@ -63370,9 +63369,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="701"/>
-      <c r="C13" s="701"/>
-      <c r="D13" s="699" t="s">
+      <c r="B13" s="697"/>
+      <c r="C13" s="697"/>
+      <c r="D13" s="696" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -63383,9 +63382,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="701"/>
-      <c r="C14" s="701"/>
-      <c r="D14" s="701"/>
+      <c r="B14" s="697"/>
+      <c r="C14" s="697"/>
+      <c r="D14" s="697"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -63394,9 +63393,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="701"/>
-      <c r="C15" s="701"/>
-      <c r="D15" s="701"/>
+      <c r="B15" s="697"/>
+      <c r="C15" s="697"/>
+      <c r="D15" s="697"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -63405,9 +63404,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="701"/>
-      <c r="C16" s="701"/>
-      <c r="D16" s="701"/>
+      <c r="B16" s="697"/>
+      <c r="C16" s="697"/>
+      <c r="D16" s="697"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -63416,9 +63415,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="701"/>
-      <c r="C17" s="701"/>
-      <c r="D17" s="700"/>
+      <c r="B17" s="697"/>
+      <c r="C17" s="697"/>
+      <c r="D17" s="698"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -63427,8 +63426,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="701"/>
-      <c r="C18" s="701"/>
+      <c r="B18" s="697"/>
+      <c r="C18" s="697"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -63440,9 +63439,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="701"/>
-      <c r="C19" s="701"/>
-      <c r="D19" s="699" t="s">
+      <c r="B19" s="697"/>
+      <c r="C19" s="697"/>
+      <c r="D19" s="696" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -63453,9 +63452,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="701"/>
-      <c r="C20" s="700"/>
-      <c r="D20" s="700"/>
+      <c r="B20" s="697"/>
+      <c r="C20" s="698"/>
+      <c r="D20" s="698"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -63464,11 +63463,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="701"/>
-      <c r="C21" s="699" t="s">
+      <c r="B21" s="697"/>
+      <c r="C21" s="696" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="699" t="s">
+      <c r="D21" s="696" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -63479,9 +63478,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="701"/>
-      <c r="C22" s="701"/>
-      <c r="D22" s="700"/>
+      <c r="B22" s="697"/>
+      <c r="C22" s="697"/>
+      <c r="D22" s="698"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -63490,9 +63489,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="701"/>
-      <c r="C23" s="701"/>
-      <c r="D23" s="699" t="s">
+      <c r="B23" s="697"/>
+      <c r="C23" s="697"/>
+      <c r="D23" s="696" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -63503,9 +63502,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="701"/>
-      <c r="C24" s="701"/>
-      <c r="D24" s="701"/>
+      <c r="B24" s="697"/>
+      <c r="C24" s="697"/>
+      <c r="D24" s="697"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -63514,9 +63513,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="701"/>
-      <c r="C25" s="701"/>
-      <c r="D25" s="700"/>
+      <c r="B25" s="697"/>
+      <c r="C25" s="697"/>
+      <c r="D25" s="698"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -63525,8 +63524,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="701"/>
-      <c r="C26" s="700"/>
+      <c r="B26" s="697"/>
+      <c r="C26" s="698"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -63538,8 +63537,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="701"/>
-      <c r="C27" s="696" t="s">
+      <c r="B27" s="697"/>
+      <c r="C27" s="702" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="135" t="s">
@@ -63554,8 +63553,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="701"/>
-      <c r="C28" s="697"/>
+      <c r="B28" s="697"/>
+      <c r="C28" s="703"/>
       <c r="D28" s="135" t="s">
         <v>134</v>
       </c>
@@ -63568,8 +63567,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="701"/>
-      <c r="C29" s="698"/>
+      <c r="B29" s="697"/>
+      <c r="C29" s="704"/>
       <c r="D29" s="135" t="s">
         <v>135</v>
       </c>
@@ -63582,7 +63581,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="701"/>
+      <c r="B30" s="697"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -63593,7 +63592,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="701"/>
+      <c r="B31" s="697"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -63604,7 +63603,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="701"/>
+      <c r="B32" s="697"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -63615,8 +63614,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="701"/>
-      <c r="C33" s="699" t="s">
+      <c r="B33" s="697"/>
+      <c r="C33" s="696" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -63628,8 +63627,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="701"/>
-      <c r="C34" s="700"/>
+      <c r="B34" s="697"/>
+      <c r="C34" s="698"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -63639,7 +63638,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="700"/>
+      <c r="B35" s="698"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -63653,7 +63652,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="699" t="s">
+      <c r="B36" s="696" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -63666,7 +63665,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="701"/>
+      <c r="B37" s="697"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -63677,7 +63676,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="701"/>
+      <c r="B38" s="697"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -63688,7 +63687,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="700"/>
+      <c r="B39" s="698"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -63702,7 +63701,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="699" t="s">
+      <c r="B40" s="696" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -63715,8 +63714,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="701"/>
-      <c r="C41" s="699" t="s">
+      <c r="B41" s="697"/>
+      <c r="C41" s="696" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -63728,8 +63727,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="701"/>
-      <c r="C42" s="700"/>
+      <c r="B42" s="697"/>
+      <c r="C42" s="698"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -63739,7 +63738,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="700"/>
+      <c r="B43" s="698"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -63750,7 +63749,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="699" t="s">
+      <c r="B44" s="696" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -63764,7 +63763,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="701"/>
+      <c r="B45" s="697"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -63775,7 +63774,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="701"/>
+      <c r="B46" s="697"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -63786,7 +63785,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="701"/>
+      <c r="B47" s="697"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -63797,7 +63796,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="700"/>
+      <c r="B48" s="698"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -63855,10 +63854,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="699" t="s">
+      <c r="C53" s="696" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="699" t="s">
+      <c r="D53" s="696" t="s">
         <v>169</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -63870,8 +63869,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="701"/>
-      <c r="D54" s="701"/>
+      <c r="C54" s="697"/>
+      <c r="D54" s="697"/>
       <c r="E54" s="66" t="s">
         <v>173</v>
       </c>
@@ -63881,8 +63880,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="701"/>
-      <c r="D55" s="700"/>
+      <c r="C55" s="697"/>
+      <c r="D55" s="698"/>
       <c r="E55" s="66" t="s">
         <v>174</v>
       </c>
@@ -63892,11 +63891,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="701"/>
-      <c r="D56" s="699" t="s">
+      <c r="C56" s="697"/>
+      <c r="D56" s="696" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="699" t="s">
+      <c r="E56" s="696" t="s">
         <v>175</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -63907,9 +63906,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="701"/>
-      <c r="D57" s="701"/>
-      <c r="E57" s="701"/>
+      <c r="C57" s="697"/>
+      <c r="D57" s="697"/>
+      <c r="E57" s="697"/>
       <c r="F57" s="66" t="s">
         <v>177</v>
       </c>
@@ -63918,9 +63917,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="701"/>
-      <c r="D58" s="701"/>
-      <c r="E58" s="700"/>
+      <c r="C58" s="697"/>
+      <c r="D58" s="697"/>
+      <c r="E58" s="698"/>
       <c r="F58" s="66" t="s">
         <v>174</v>
       </c>
@@ -63929,9 +63928,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="701"/>
-      <c r="D59" s="701"/>
-      <c r="E59" s="699" t="s">
+      <c r="C59" s="697"/>
+      <c r="D59" s="697"/>
+      <c r="E59" s="696" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -63942,9 +63941,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="701"/>
-      <c r="D60" s="700"/>
-      <c r="E60" s="700"/>
+      <c r="C60" s="697"/>
+      <c r="D60" s="698"/>
+      <c r="E60" s="698"/>
       <c r="F60" s="66" t="s">
         <v>179</v>
       </c>
@@ -63953,8 +63952,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="701"/>
-      <c r="D61" s="699" t="s">
+      <c r="C61" s="697"/>
+      <c r="D61" s="696" t="s">
         <v>171</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -63966,8 +63965,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="701"/>
-      <c r="D62" s="701"/>
+      <c r="C62" s="697"/>
+      <c r="D62" s="697"/>
       <c r="E62" s="66" t="s">
         <v>181</v>
       </c>
@@ -63977,8 +63976,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="700"/>
-      <c r="D63" s="700"/>
+      <c r="C63" s="698"/>
+      <c r="D63" s="698"/>
       <c r="E63" s="66" t="s">
         <v>182</v>
       </c>
@@ -63991,7 +63990,7 @@
       <c r="C64" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="699" t="s">
+      <c r="D64" s="696" t="s">
         <v>183</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -64004,7 +64003,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="700"/>
+      <c r="D65" s="698"/>
       <c r="E65" s="66" t="s">
         <v>185</v>
       </c>
@@ -64090,7 +64089,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="693" t="s">
+      <c r="B73" s="699" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -64103,7 +64102,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="693"/>
+      <c r="B74" s="699"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -64114,7 +64113,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="693"/>
+      <c r="B75" s="699"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -64125,7 +64124,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="693"/>
+      <c r="B76" s="699"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -64136,7 +64135,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="693"/>
+      <c r="B77" s="699"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -64147,7 +64146,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="693"/>
+      <c r="B78" s="699"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -64158,7 +64157,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="693"/>
+      <c r="B79" s="699"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -64169,7 +64168,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="693"/>
+      <c r="B80" s="699"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -64191,18 +64190,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -64215,6 +64202,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -64770,8 +64769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -64779,7 +64778,7 @@
     <col min="1" max="1" width="20.5" style="76" customWidth="1"/>
     <col min="2" max="2" width="35.125" style="76" customWidth="1"/>
     <col min="3" max="3" width="24.625" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.25" style="76" customWidth="1"/>
+    <col min="4" max="4" width="51" style="76" customWidth="1"/>
     <col min="5" max="5" width="40.625" style="104" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="114" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="114" customWidth="1"/>
@@ -65676,7 +65675,7 @@
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="267" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B42" s="260" t="s">
         <v>797</v>
@@ -65699,7 +65698,7 @@
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="267" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B43" s="260" t="s">
         <v>798</v>
@@ -65722,7 +65721,7 @@
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="267" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B44" s="260" t="s">
         <v>799</v>
@@ -65745,7 +65744,7 @@
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="267" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B45" s="260" t="s">
         <v>800</v>
@@ -65768,7 +65767,7 @@
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="267" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B46" s="261" t="s">
         <v>801</v>
@@ -65791,7 +65790,7 @@
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="267" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B47" s="261" t="s">
         <v>802</v>
@@ -65814,7 +65813,7 @@
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="267" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B48" s="261" t="s">
         <v>312</v>
@@ -65837,7 +65836,7 @@
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="267" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B49" s="261" t="s">
         <v>313</v>
@@ -65860,7 +65859,7 @@
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="267" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B50" s="261" t="s">
         <v>803</v>
@@ -65883,7 +65882,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="267" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B51" s="261" t="s">
         <v>314</v>
@@ -65906,7 +65905,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="268" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B52" s="261" t="s">
         <v>315</v>
@@ -65929,7 +65928,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="268" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B53" s="261" t="s">
         <v>316</v>
@@ -65952,7 +65951,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="268" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B54" s="261" t="s">
         <v>317</v>
@@ -65975,7 +65974,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="268" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B55" s="261" t="s">
         <v>318</v>
@@ -65998,7 +65997,7 @@
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="268" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B56" s="266" t="s">
         <v>319</v>
@@ -66021,7 +66020,7 @@
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="268" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B57" s="261" t="s">
         <v>320</v>
@@ -66044,7 +66043,7 @@
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="268" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B58" s="261" t="s">
         <v>321</v>
@@ -66067,7 +66066,7 @@
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="268" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B59" s="261" t="s">
         <v>322</v>
@@ -66090,7 +66089,7 @@
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="268" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B60" s="261" t="s">
         <v>323</v>
@@ -66113,7 +66112,7 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="268" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B61" s="261" t="s">
         <v>324</v>
@@ -66136,7 +66135,7 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="268" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B62" s="261" t="s">
         <v>325</v>
@@ -66161,7 +66160,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="268" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B63" s="261" t="s">
         <v>327</v>
@@ -66184,7 +66183,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="268" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B64" s="261" t="s">
         <v>328</v>
@@ -66224,7 +66223,7 @@
     </row>
     <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="271" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B66" s="272" t="s">
         <v>329</v>
@@ -66247,7 +66246,7 @@
     </row>
     <row r="67" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="271" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B67" s="272" t="s">
         <v>330</v>
@@ -66270,7 +66269,7 @@
     </row>
     <row r="68" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="271" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B68" s="271" t="s">
         <v>331</v>
@@ -66315,7 +66314,7 @@
       <c r="M69" s="271"/>
     </row>
     <row r="70" spans="1:14" s="228" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="718" t="s">
+      <c r="A70" s="594" t="s">
         <v>2296</v>
       </c>
       <c r="B70" s="270"/>
@@ -66331,9 +66330,9 @@
       <c r="L70" s="271"/>
       <c r="M70" s="271"/>
     </row>
-    <row r="71" spans="1:14" s="720" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" s="596" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
       <c r="A71" s="531" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B71" s="589" t="s">
         <v>2297</v>
@@ -66344,7 +66343,7 @@
       <c r="D71" s="589" t="s">
         <v>2298</v>
       </c>
-      <c r="E71" s="719"/>
+      <c r="E71" s="595"/>
       <c r="F71" s="592"/>
       <c r="G71" s="591"/>
       <c r="H71" s="591"/>
@@ -66352,12 +66351,12 @@
       <c r="J71" s="591"/>
       <c r="K71" s="591"/>
       <c r="L71" s="592"/>
-      <c r="M71" s="719"/>
-      <c r="N71" s="719"/>
-    </row>
-    <row r="72" spans="1:14" s="720" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+      <c r="M71" s="595"/>
+      <c r="N71" s="595"/>
+    </row>
+    <row r="72" spans="1:14" s="596" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
       <c r="A72" s="531" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B72" s="589" t="s">
         <v>2299</v>
@@ -66368,7 +66367,7 @@
       <c r="D72" s="589" t="s">
         <v>2300</v>
       </c>
-      <c r="E72" s="719"/>
+      <c r="E72" s="595"/>
       <c r="F72" s="592"/>
       <c r="G72" s="591"/>
       <c r="H72" s="591"/>
@@ -66376,12 +66375,12 @@
       <c r="J72" s="591"/>
       <c r="K72" s="591"/>
       <c r="L72" s="592"/>
-      <c r="M72" s="719"/>
-      <c r="N72" s="719"/>
-    </row>
-    <row r="73" spans="1:14" s="720" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+      <c r="M72" s="595"/>
+      <c r="N72" s="595"/>
+    </row>
+    <row r="73" spans="1:14" s="596" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A73" s="531" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B73" s="589" t="s">
         <v>2301</v>
@@ -66390,9 +66389,9 @@
         <v>1534</v>
       </c>
       <c r="D73" s="589" t="s">
-        <v>2302</v>
-      </c>
-      <c r="E73" s="719"/>
+        <v>2331</v>
+      </c>
+      <c r="E73" s="595"/>
       <c r="F73" s="592"/>
       <c r="G73" s="591"/>
       <c r="H73" s="591"/>
@@ -66400,8 +66399,8 @@
       <c r="J73" s="591"/>
       <c r="K73" s="591"/>
       <c r="L73" s="592"/>
-      <c r="M73" s="719"/>
-      <c r="N73" s="719"/>
+      <c r="M73" s="595"/>
+      <c r="N73" s="595"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
